--- a/Muestreo 100 Args.xlsx
+++ b/Muestreo 100 Args.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh+/Xl+BS0qAH2A3tz1HHRSpOer2w=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Indice</t>
   </si>
@@ -22,12 +27,36 @@
     <t>Familia</t>
   </si>
   <si>
-    <t>Puntaje Mas Popular</t>
+    <t>Puntaje Mas PopularPuntaje Mas Popular1</t>
+  </si>
+  <si>
+    <t>Puntaje Mas PopularPuntaje Mas Popular</t>
+  </si>
+  <si>
+    <t>Puntaje Mas Popular2</t>
+  </si>
+  <si>
+    <t>Puntaje Mas Popular3</t>
+  </si>
+  <si>
+    <t>Puntaje Mas Popular4</t>
   </si>
   <si>
     <t>Puntaje Segunda Mas Popular</t>
   </si>
   <si>
+    <t>Puntaje Segunda Mas Popular1</t>
+  </si>
+  <si>
+    <t>Puntaje Segunda Mas Popular2</t>
+  </si>
+  <si>
+    <t>Puntaje Segunda Mas Popular3</t>
+  </si>
+  <si>
+    <t>Puntaje Segunda Mas Popular4</t>
+  </si>
+  <si>
     <t>Numero de Mas Populares</t>
   </si>
   <si>
@@ -46,7 +75,22 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Ganadores</t>
+    <t>puntaje1</t>
+  </si>
+  <si>
+    <t>puntaje2</t>
+  </si>
+  <si>
+    <t>puntaje3</t>
+  </si>
+  <si>
+    <t>puntaje4</t>
+  </si>
+  <si>
+    <t>puntaje5</t>
+  </si>
+  <si>
+    <t>puntaje6</t>
   </si>
   <si>
     <t>Duarte</t>
@@ -232,15 +276,20 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,8 +300,13 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -262,37 +316,39 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -322,40 +378,40 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,7 +558,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -510,16 +566,21 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="18.86"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="33.43"/>
     <col customWidth="1" min="9" max="9" width="27.0"/>
+    <col customWidth="1" min="13" max="13" width="35.86"/>
     <col customWidth="1" min="14" max="14" width="23.86"/>
     <col customWidth="1" min="15" max="15" width="32.0"/>
     <col customWidth="1" min="16" max="16" width="30.0"/>
+    <col customWidth="1" min="20" max="20" width="20.14"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,41 +593,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
         <f t="shared" ref="A2:A102" si="1">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>44470.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>29.0</v>
@@ -602,29 +702,39 @@
       <c r="R2" s="1">
         <v>136.0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <f t="shared" ref="S2:S17" si="2">Q2+R2</f>
         <v>202</v>
       </c>
       <c r="T2" s="2">
-        <f>COUNTIF(S2:S101,"&gt;=200")</f>
-        <v>27</v>
+        <v>25.0</v>
       </c>
       <c r="U2" s="2">
-        <f>AVERAGE(S2:S85)</f>
-        <v>174.5714286</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>44470.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>31.0</v>
@@ -656,21 +766,39 @@
       <c r="R3" s="1">
         <v>79.0</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
+      <c r="T3" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>44472.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>31.0</v>
@@ -693,21 +821,39 @@
       <c r="R4" s="1">
         <v>48.0</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+      <c r="T4" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>44472.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>27.0</v>
@@ -745,21 +891,39 @@
       <c r="R5" s="1">
         <v>71.0</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
+      <c r="T5" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>44474.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>34.0</v>
@@ -788,21 +952,39 @@
       <c r="R6" s="1">
         <v>66.0</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
+      <c r="T6" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>44474.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>31.0</v>
@@ -837,21 +1019,39 @@
       <c r="R7" s="1">
         <v>91.0</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
+      <c r="T7" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>44476.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>36.0</v>
@@ -880,21 +1080,39 @@
       <c r="R8" s="1">
         <v>74.0</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
+      <c r="T8" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>44476.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>27.0</v>
@@ -926,21 +1144,39 @@
       <c r="R9" s="1">
         <v>129.0</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
+      <c r="T9" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>44479.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>27.0</v>
@@ -984,21 +1220,39 @@
       <c r="R10" s="1">
         <v>117.0</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
+      <c r="T10" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>44479.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>30.0</v>
@@ -1036,21 +1290,39 @@
       <c r="R11" s="1">
         <v>103.0</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
+      <c r="T11" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>44481.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>27.0</v>
@@ -1079,21 +1351,39 @@
       <c r="R12" s="1">
         <v>58.0</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
+      <c r="T12" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>44481.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>40.0</v>
@@ -1125,21 +1415,39 @@
       <c r="R13" s="1">
         <v>62.0</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
+      <c r="T13" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>44483.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>33.0</v>
@@ -1174,21 +1482,39 @@
       <c r="R14" s="1">
         <v>80.0</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
+      <c r="T14" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>44483.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>28.0</v>
@@ -1223,21 +1549,39 @@
       <c r="R15" s="1">
         <v>101.0</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
+      <c r="T15" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>44487.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>33.0</v>
@@ -1260,21 +1604,39 @@
       <c r="R16" s="1">
         <v>79.0</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
+      <c r="T16" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>44487.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>27.0</v>
@@ -1300,21 +1662,39 @@
       <c r="R17" s="1">
         <v>86.0</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
+      <c r="T17" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>44489.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1">
         <v>36.0</v>
@@ -1343,17 +1723,35 @@
       <c r="S18" s="1">
         <v>133.0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
+      <c r="T18" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>44489.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>32.0</v>
@@ -1388,21 +1786,39 @@
       <c r="R19" s="1">
         <v>96.0</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <f t="shared" ref="S19:S101" si="3">Q19+R19</f>
         <v>202</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
+      <c r="T19" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>44491.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>31.0</v>
@@ -1434,21 +1850,39 @@
       <c r="R20" s="1">
         <v>84.0</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
+      <c r="T20" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>44491.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1">
         <v>21.0</v>
@@ -1474,21 +1908,39 @@
       <c r="R21" s="1">
         <v>69.0</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="1">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
+      <c r="T21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>44493.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1">
         <v>28.0</v>
@@ -1514,21 +1966,39 @@
       <c r="R22" s="1">
         <v>80.0</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
+      <c r="T22" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>44493.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1">
         <v>40.0</v>
@@ -1551,21 +2021,39 @@
       <c r="R23" s="1">
         <v>64.0</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
+      <c r="T23" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>44495.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1">
         <v>31.0</v>
@@ -1585,21 +2073,39 @@
       <c r="R24" s="1">
         <v>46.0</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
+      <c r="T24" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>44495.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1">
         <v>36.0</v>
@@ -1628,21 +2134,39 @@
       <c r="R25" s="1">
         <v>83.0</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
+      <c r="T25" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>44497.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1">
         <v>27.0</v>
@@ -1665,64 +2189,107 @@
       <c r="R26" s="1">
         <v>52.0</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
+      <c r="T26" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>44497.0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>111.0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="T27" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="V27" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E27" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>92.0</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>44500.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1">
         <v>35.0</v>
@@ -1754,21 +2321,39 @@
       <c r="R28" s="1">
         <v>53.0</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
+      <c r="T28" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>44500.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1">
         <v>28.0</v>
@@ -1803,21 +2388,39 @@
       <c r="R29" s="1">
         <v>136.0</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
+      <c r="T29" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>44501.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1">
         <v>38.0</v>
@@ -1849,21 +2452,39 @@
       <c r="R30" s="1">
         <v>92.0</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
+      <c r="T30" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>44501.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1">
         <v>31.0</v>
@@ -1877,11 +2498,11 @@
       <c r="I31" s="1">
         <v>24.0</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <f t="shared" ref="N31:N85" si="4">COUNT(D31:H31)</f>
         <v>3</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <f t="shared" ref="O31:O85" si="5">COUNT(I31:M31)</f>
         <v>1</v>
       </c>
@@ -1894,21 +2515,39 @@
       <c r="R31" s="1">
         <v>49.0</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
+      <c r="T31" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="9">
         <v>44503.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>35.0</v>
@@ -1925,11 +2564,11 @@
       <c r="I32" s="1">
         <v>23.0</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -1942,21 +2581,39 @@
       <c r="R32" s="1">
         <v>54.0</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
+      <c r="T32" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>44503.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>34.0</v>
@@ -1973,11 +2630,11 @@
       <c r="J33" s="1">
         <v>22.0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -1990,21 +2647,39 @@
       <c r="R33" s="1">
         <v>86.0</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
+      <c r="T33" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="9">
         <v>44505.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>38.0</v>
@@ -2018,11 +2693,11 @@
       <c r="I34" s="1">
         <v>17.0</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2035,21 +2710,39 @@
       <c r="R34" s="1">
         <v>64.0</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2">
+      <c r="T34" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="9">
         <v>44505.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>32.0</v>
@@ -2069,11 +2762,11 @@
       <c r="J35" s="1">
         <v>21.0</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2086,21 +2779,39 @@
       <c r="R35" s="1">
         <v>85.0</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2">
+      <c r="T35" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="9">
         <v>44507.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1">
         <v>31.0</v>
@@ -2116,11 +2827,11 @@
       <c r="J36" s="1">
         <v>24.0</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2133,21 +2844,39 @@
       <c r="R36" s="1">
         <v>78.0</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2">
+      <c r="T36" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="9">
         <v>44507.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1">
         <v>42.0</v>
@@ -2167,11 +2896,11 @@
       <c r="I37" s="1">
         <v>15.0</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2184,21 +2913,39 @@
       <c r="R37" s="1">
         <v>64.0</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2">
+      <c r="T37" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="9">
         <v>44509.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1">
         <v>36.0</v>
@@ -2212,11 +2959,11 @@
       <c r="G38" s="1">
         <v>31.0</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2229,21 +2976,39 @@
       <c r="R38" s="1">
         <v>80.0</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
+      <c r="T38" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="U38" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="9">
         <v>44510.0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>36.0</v>
@@ -2263,11 +3028,11 @@
       <c r="J39" s="1">
         <v>20.0</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2280,21 +3045,39 @@
       <c r="R39" s="1">
         <v>76.0</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2">
+      <c r="T39" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U39" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W39" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>44510.0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
         <v>29.0</v>
@@ -2311,11 +3094,11 @@
       <c r="J40" s="1">
         <v>20.0</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2328,21 +3111,39 @@
       <c r="R40" s="1">
         <v>102.0</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2">
+      <c r="T40" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U40" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V40" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>44511.0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
         <v>27.0</v>
@@ -2356,11 +3157,11 @@
       <c r="G41" s="1">
         <v>29.0</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2373,21 +3174,39 @@
       <c r="R41" s="1">
         <v>58.0</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2">
+      <c r="T41" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>44511.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1">
         <v>34.0</v>
@@ -2401,11 +3220,11 @@
       <c r="I42" s="1">
         <v>22.0</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2418,21 +3237,39 @@
       <c r="R42" s="1">
         <v>78.0</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2">
+      <c r="T42" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>44515.0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
         <v>29.0</v>
@@ -2452,11 +3289,11 @@
       <c r="J43" s="1">
         <v>19.0</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2469,21 +3306,39 @@
       <c r="R43" s="1">
         <v>112.0</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2">
+      <c r="T43" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>44515.0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1">
         <v>28.0</v>
@@ -2491,11 +3346,11 @@
       <c r="I44" s="1">
         <v>26.0</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2508,21 +3363,39 @@
       <c r="R44" s="1">
         <v>46.0</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2">
+      <c r="T44" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>44517.0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1">
         <v>36.0</v>
@@ -2539,11 +3412,11 @@
       <c r="J45" s="1">
         <v>23.0</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2556,21 +3429,39 @@
       <c r="R45" s="1">
         <v>68.0</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="1">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2">
+      <c r="T45" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>44517.0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1">
         <v>25.0</v>
@@ -2593,11 +3484,11 @@
       <c r="K46" s="1">
         <v>24.0</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2610,21 +3501,39 @@
       <c r="R46" s="1">
         <v>109.0</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2">
+      <c r="T46" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>44519.0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
         <v>28.0</v>
@@ -2641,11 +3550,11 @@
       <c r="I47" s="1">
         <v>25.0</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2658,21 +3567,39 @@
       <c r="R47" s="1">
         <v>90.0</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="1">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2">
+      <c r="T47" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>44519.0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1">
         <v>27.0</v>
@@ -2695,11 +3622,11 @@
       <c r="J48" s="1">
         <v>21.0</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2712,21 +3639,39 @@
       <c r="R48" s="1">
         <v>107.0</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
+      <c r="T48" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>44522.0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1">
         <v>34.0</v>
@@ -2743,11 +3688,11 @@
       <c r="I49" s="1">
         <v>19.0</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2760,21 +3705,39 @@
       <c r="R49" s="1">
         <v>102.0</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="1">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2">
+      <c r="T49" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>44522.0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1">
         <v>29.0</v>
@@ -2788,11 +3751,11 @@
       <c r="I50" s="1">
         <v>23.0</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2805,21 +3768,39 @@
       <c r="R50" s="1">
         <v>76.0</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2">
+      <c r="T50" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>44523.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1">
         <v>27.0</v>
@@ -2836,11 +3817,11 @@
       <c r="I51" s="1">
         <v>22.0</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2853,21 +3834,39 @@
       <c r="R51" s="1">
         <v>75.0</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2">
+      <c r="T51" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>44523.0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1">
         <v>33.0</v>
@@ -2890,11 +3889,11 @@
       <c r="K52" s="1">
         <v>22.0</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2907,66 +3906,108 @@
       <c r="R52" s="1">
         <v>80.0</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2">
+      <c r="T52" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="6">
         <v>44524.0</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="5">
         <v>27.0</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="5">
         <v>37.0</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="5">
         <v>30.0</v>
       </c>
-      <c r="I53" s="1">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="5">
         <v>25.0</v>
       </c>
-      <c r="N53" s="2">
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="5">
         <v>2.0</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="5">
         <v>138.0</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="5">
         <v>62.0</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2">
+      <c r="T53" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="U53" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="V53" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="W53" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>44524.0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1">
         <v>30.0</v>
@@ -2983,11 +4024,11 @@
       <c r="K54" s="1">
         <v>24.0</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -3000,21 +4041,39 @@
       <c r="R54" s="1">
         <v>59.0</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2">
+      <c r="T54" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>44521.0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1">
         <v>30.0</v>
@@ -3034,11 +4093,11 @@
       <c r="J55" s="1">
         <v>27.0</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -3051,21 +4110,39 @@
       <c r="R55" s="1">
         <v>157.0</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="1">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2">
+      <c r="T55" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U55" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V55" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W55" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>44521.0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1">
         <v>32.0</v>
@@ -3076,11 +4153,11 @@
       <c r="G56" s="1">
         <v>32.0</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3093,21 +4170,39 @@
       <c r="R56" s="1">
         <v>48.0</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="1">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2">
+      <c r="T56" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V56" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W56" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X56" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>44512.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>31.0</v>
@@ -3133,11 +4228,11 @@
       <c r="L57" s="1">
         <v>26.0</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3150,21 +4245,39 @@
       <c r="R57" s="1">
         <v>101.0</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2">
+      <c r="T57" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="9">
         <v>44440.0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1">
         <v>31.0</v>
@@ -3178,11 +4291,11 @@
       <c r="I58" s="1">
         <v>23.0</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -3195,21 +4308,39 @@
       <c r="R58" s="1">
         <v>95.0</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="1">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2">
+      <c r="T58" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="9">
         <v>44440.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D59" s="1">
         <v>33.0</v>
@@ -3220,11 +4351,11 @@
       <c r="H59" s="1">
         <v>34.0</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3237,21 +4368,39 @@
       <c r="R59" s="1">
         <v>84.0</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="1">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2">
+      <c r="T59" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="9">
         <v>44442.0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D60" s="1">
         <v>39.0</v>
@@ -3268,11 +4417,11 @@
       <c r="K60" s="1">
         <v>23.0</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -3285,21 +4434,39 @@
       <c r="R60" s="1">
         <v>116.0</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2">
+      <c r="T60" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="9">
         <v>44442.0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1">
         <v>37.0</v>
@@ -3322,11 +4489,11 @@
       <c r="L61" s="1">
         <v>24.0</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -3339,21 +4506,39 @@
       <c r="R61" s="1">
         <v>65.0</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="1">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2">
+      <c r="T61" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="10">
         <v>44444.0</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>52</v>
+      <c r="C62" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D62" s="1">
         <v>31.0</v>
@@ -3367,38 +4552,56 @@
       <c r="L62" s="1">
         <v>22.0</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P62" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="11">
         <v>110.0</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62" s="11">
         <v>71.0</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="1">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2">
+      <c r="T62" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="10">
         <v>44444.0</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>52</v>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="1">
         <v>31.0</v>
@@ -3412,38 +4615,56 @@
       <c r="L63" s="1">
         <v>21.0</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P63" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="11">
         <v>96.0</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="11">
         <v>92.0</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="1">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2">
+      <c r="T63" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="10">
         <v>44446.0</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>53</v>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E64" s="1">
         <v>33.0</v>
@@ -3460,38 +4681,56 @@
       <c r="L64" s="1">
         <v>19.0</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P64" s="1">
         <v>5.0</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="11">
         <v>122.0</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64" s="11">
         <v>32.0</v>
       </c>
-      <c r="S64" s="2">
+      <c r="S64" s="1">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2">
+      <c r="T64" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="10">
         <v>44446.0</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>54</v>
+      <c r="C65" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D65" s="1">
         <v>31.0</v>
@@ -3514,38 +4753,56 @@
       <c r="M65" s="1">
         <v>19.0</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P65" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="11">
         <v>120.0</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="11">
         <v>83.0</v>
       </c>
-      <c r="S65" s="2">
+      <c r="S65" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2">
+      <c r="T65" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="10">
         <v>44448.0</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>55</v>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D66" s="1">
         <v>32.0</v>
@@ -3563,38 +4820,56 @@
       <c r="L66" s="1">
         <v>22.0</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P66" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="11">
         <v>146.0</v>
       </c>
-      <c r="R66" s="10">
+      <c r="R66" s="11">
         <v>69.0</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2">
+      <c r="T66" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="10">
         <v>44448.0</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>54</v>
+      <c r="C67" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D67" s="1">
         <v>37.0</v>
@@ -3611,38 +4886,56 @@
       <c r="M67" s="1">
         <v>23.0</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P67" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="11">
         <v>103.0</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R67" s="11">
         <v>73.0</v>
       </c>
-      <c r="S67" s="2">
+      <c r="S67" s="1">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2">
+      <c r="T67" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U67" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V67" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W67" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X67" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="10">
         <v>44450.0</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>56</v>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D68" s="1">
         <v>36.0</v>
@@ -3650,38 +4943,56 @@
       <c r="I68" s="1">
         <v>35.0</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P68" s="1">
         <v>5.0</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="11">
         <v>76.0</v>
       </c>
-      <c r="R68" s="7">
+      <c r="R68" s="11">
         <v>56.0</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68" s="1">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2">
+      <c r="T68" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="10">
         <v>44450.0</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>56</v>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D69" s="1">
         <v>42.0</v>
@@ -3689,38 +5000,56 @@
       <c r="K69" s="1">
         <v>31.0</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P69" s="1">
         <v>6.0</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="11">
         <v>49.0</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="11">
         <v>70.0</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="1">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2">
+      <c r="T69" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="10">
         <v>44452.0</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>57</v>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D70" s="1">
         <v>29.0</v>
@@ -3734,38 +5063,56 @@
       <c r="M70" s="1">
         <v>23.0</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O70" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P70" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70" s="11">
         <v>75.0</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70" s="11">
         <v>98.0</v>
       </c>
-      <c r="S70" s="2">
+      <c r="S70" s="1">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2">
+      <c r="T70" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="10">
         <v>44452.0</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>58</v>
+      <c r="C71" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G71" s="1">
         <v>33.0</v>
@@ -3776,38 +5123,56 @@
       <c r="L71" s="1">
         <v>24.0</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P71" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="11">
         <v>88.0</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="11">
         <v>81.0</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="1">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2">
+      <c r="T71" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="10">
         <v>44454.0</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>59</v>
+      <c r="C72" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F72" s="1">
         <v>37.0</v>
@@ -3818,38 +5183,56 @@
       <c r="H72" s="1">
         <v>34.0</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P72" s="1">
         <v>4.0</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="11">
         <v>113.0</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72" s="11">
         <v>57.0</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2">
+      <c r="T72" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="10">
         <v>44454.0</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>60</v>
+      <c r="C73" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D73" s="1">
         <v>31.0</v>
@@ -3872,38 +5255,56 @@
       <c r="M73" s="1">
         <v>22.0</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P73" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="11">
         <v>120.0</v>
       </c>
-      <c r="R73" s="7">
+      <c r="R73" s="11">
         <v>95.0</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2">
+      <c r="T73" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="10">
         <v>44456.0</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>61</v>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F74" s="1">
         <v>41.0</v>
@@ -3917,38 +5318,56 @@
       <c r="M74" s="1">
         <v>24.0</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P74" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74" s="11">
         <v>106.0</v>
       </c>
-      <c r="R74" s="7">
+      <c r="R74" s="11">
         <v>79.0</v>
       </c>
-      <c r="S74" s="2">
+      <c r="S74" s="1">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2">
+      <c r="T74" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="10">
         <v>44456.0</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>61</v>
+      <c r="C75" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D75" s="1">
         <v>27.0</v>
@@ -3968,38 +5387,56 @@
       <c r="M75" s="1">
         <v>26.0</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="11">
         <v>106.0</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75" s="11">
         <v>117.0</v>
       </c>
-      <c r="S75" s="2">
+      <c r="S75" s="1">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2">
+      <c r="T75" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="10">
         <v>44458.0</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>62</v>
+      <c r="C76" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D76" s="1">
         <v>31.0</v>
@@ -4020,38 +5457,56 @@
         <v>22.0</v>
       </c>
       <c r="K76" s="1"/>
-      <c r="N76" s="2">
+      <c r="N76" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P76" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76" s="11">
         <v>79.0</v>
       </c>
-      <c r="R76" s="7">
+      <c r="R76" s="11">
         <v>124.0</v>
       </c>
-      <c r="S76" s="2">
+      <c r="S76" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2">
+      <c r="T76" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="10">
         <v>44458.0</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>63</v>
+      <c r="C77" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D77" s="1">
         <v>34.0</v>
@@ -4065,38 +5520,56 @@
       <c r="K77" s="1">
         <v>18.0</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P77" s="1">
         <v>4.0</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="11">
         <v>59.0</v>
       </c>
-      <c r="R77" s="7">
+      <c r="R77" s="11">
         <v>102.0</v>
       </c>
-      <c r="S77" s="2">
+      <c r="S77" s="1">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2">
+      <c r="T77" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="10">
         <v>44460.0</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>64</v>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F78" s="1">
         <v>33.0</v>
@@ -4110,38 +5583,56 @@
       <c r="L78" s="1">
         <v>21.0</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P78" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="11">
         <v>108.0</v>
       </c>
-      <c r="R78" s="7">
+      <c r="R78" s="11">
         <v>51.0</v>
       </c>
-      <c r="S78" s="2">
+      <c r="S78" s="1">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2">
+      <c r="T78" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U78" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W78" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X78" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="10">
         <v>44460.0</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>64</v>
+      <c r="C79" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E79" s="1">
         <v>34.0</v>
@@ -4149,38 +5640,56 @@
       <c r="G79" s="1">
         <v>37.0</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P79" s="1">
         <v>4.0</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="11">
         <v>64.0</v>
       </c>
-      <c r="R79" s="7">
+      <c r="R79" s="11">
         <v>69.0</v>
       </c>
-      <c r="S79" s="2">
+      <c r="S79" s="1">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2">
+      <c r="T79" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U79" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V79" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W79" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X79" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="10">
         <v>44462.0</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>65</v>
+      <c r="C80" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D80" s="1">
         <v>34.0</v>
@@ -4194,38 +5703,56 @@
       <c r="M80" s="1">
         <v>26.0</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P80" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80" s="11">
         <v>78.0</v>
       </c>
-      <c r="R80" s="7">
+      <c r="R80" s="11">
         <v>85.0</v>
       </c>
-      <c r="S80" s="2">
+      <c r="S80" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2">
+      <c r="T80" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U80" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V80" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W80" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X80" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="10">
         <v>44462.0</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>66</v>
+      <c r="C81" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G81" s="1">
         <v>36.0</v>
@@ -4239,38 +5766,56 @@
       <c r="M81" s="1">
         <v>25.0</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P81" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="Q81" s="11">
         <v>77.0</v>
       </c>
-      <c r="R81" s="7">
+      <c r="R81" s="11">
         <v>83.0</v>
       </c>
-      <c r="S81" s="2">
+      <c r="S81" s="1">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2">
+      <c r="T81" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="10">
         <v>44466.0</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>67</v>
+      <c r="C82" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G82" s="1">
         <v>36.0</v>
@@ -4281,38 +5826,56 @@
       <c r="M82" s="1">
         <v>27.0</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P82" s="1">
         <v>4.0</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="Q82" s="11">
         <v>57.0</v>
       </c>
-      <c r="R82" s="7">
+      <c r="R82" s="11">
         <v>72.0</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S82" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2">
+      <c r="T82" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="U82" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="V82" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="W82" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X82" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="10">
         <v>44466.0</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>68</v>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D83" s="1">
         <v>27.0</v>
@@ -4329,38 +5892,56 @@
       <c r="L83" s="1">
         <v>25.0</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P83" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="Q83" s="11">
         <v>82.0</v>
       </c>
-      <c r="R83" s="7">
+      <c r="R83" s="11">
         <v>110.0</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="1">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2">
+      <c r="T83" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="10">
         <v>44468.0</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>69</v>
+      <c r="C84" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E84" s="1">
         <v>34.0</v>
@@ -4380,11 +5961,11 @@
       <c r="M84" s="1">
         <v>25.0</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -4397,21 +5978,39 @@
       <c r="R84" s="1">
         <v>115.0</v>
       </c>
-      <c r="S84" s="2">
+      <c r="S84" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2">
+      <c r="T84" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="12">
         <v>44468.0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G85" s="1">
         <v>35.0</v>
@@ -4425,11 +6024,11 @@
       <c r="M85" s="1">
         <v>18.0</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -4442,1219 +6041,1677 @@
       <c r="R85" s="1">
         <v>67.0</v>
       </c>
-      <c r="S85" s="2">
+      <c r="S85" s="1">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2">
+      <c r="T85" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S86" s="2">
+      <c r="S86" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2">
+      <c r="T86" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="S87" s="2">
+      <c r="S87" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2">
+      <c r="T87" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="S88" s="2">
+      <c r="S88" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2">
+      <c r="T88" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="S89" s="2">
+      <c r="S89" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2">
+      <c r="T89" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="S90" s="2">
+      <c r="S90" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2">
+      <c r="T90" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U90" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W90" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X90" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S91" s="2">
+      <c r="S91" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2">
+      <c r="T91" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S92" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2">
+      <c r="T92" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S93" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2">
+      <c r="T93" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="S94" s="2">
+      <c r="S94" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2">
+      <c r="T94" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="S95" s="2">
+      <c r="S95" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2">
+      <c r="T95" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="U95" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="V95" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W95" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="X95" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="S96" s="2">
+      <c r="S96" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2">
+      <c r="T96" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="S97" s="2">
+      <c r="S97" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2">
+      <c r="T97" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S98" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2">
+      <c r="T98" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="S99" s="2">
+      <c r="S99" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2">
+      <c r="T99" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="S100" s="2">
+      <c r="S100" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2">
+      <c r="T100" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S101" s="2">
+      <c r="S101" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2">
+      <c r="T101" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="103">
-      <c r="I103" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="J103" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="T103" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="U103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AC103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AD103" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="AE103" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="AF103" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="AG103" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="AH103" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="AI103" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="AJ103" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="AL103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AM103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AO103" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AP103" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="AQ103" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="AR103" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="AS103" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="AT103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AU103" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="AV103" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="AW103" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="AX103" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AY103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AZ103" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="BA103" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BB103" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="BD103" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="BE103" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="BH103" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="BK103" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BL103" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="BO103" s="1">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="2">
-        <v>202.0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="J104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="N104" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="P104" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="U104" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AB104" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="AG104" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AI104" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="AJ104" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="AM104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="AN104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="AQ104" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="AS104" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="AT104" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="AV104" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="AZ104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="BB104" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="BC104" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="BE104" s="1">
-        <v>19.0</v>
-      </c>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BH103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="1"/>
+      <c r="BO103" s="1"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="B104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BE104" s="1"/>
       <c r="BN104" s="1"/>
-      <c r="BW104" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BX104" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BZ104" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="CC104" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="2">
-        <v>159.0</v>
-      </c>
-      <c r="I105" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="M105" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="N105" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="U105" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="AT105" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="AZ105" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BB105" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BE105" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BH105" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="BI105" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="BM105" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="BO105" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BQ105" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="BU105" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="BW105" s="1">
-        <v>26.0</v>
-      </c>
+      <c r="BW104" s="1"/>
+      <c r="BX104" s="1"/>
+      <c r="BZ104" s="1"/>
+      <c r="CC104" s="1"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BM105" s="1"/>
+      <c r="BO105" s="1"/>
+      <c r="BQ105" s="1"/>
+      <c r="BU105" s="1"/>
+      <c r="BW105" s="1"/>
       <c r="BX105" s="1"/>
-      <c r="BY105" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="CC105" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="CG105" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="12">
-        <v>127.0</v>
-      </c>
-      <c r="E106" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="H106" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="J106" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="K106" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="N106" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="O106" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="S106" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="BE106" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="BI106" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BJ106" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BK106" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="BL106" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="BN106" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BS106" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BV106" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BZ106" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="CB106" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="CD106" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="CE106" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="CF106" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="12">
-        <v>216.0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="F107" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="J107" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="N107" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="O107" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="S107" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="T107" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="Y107" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="Z107" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="AC107" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="BM107" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="BO107" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="BR107" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="BU107" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="BV107" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="BW107" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="CB107" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="CC107" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="CD107" s="1">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="2">
-        <v>189.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="2">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="2">
-        <v>184.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="2">
-        <v>252.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="2">
-        <v>238.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="2">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="2">
-        <v>216.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="2">
-        <v>182.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" s="2">
-        <v>208.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="2">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="2">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="2">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="2">
-        <v>202.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="2">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="2">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="2">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" s="2">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="2">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" s="2">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" s="2">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="2">
-        <v>184.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" s="2">
-        <v>201.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="2">
-        <v>204.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" s="2">
-        <v>182.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" s="2">
-        <v>191.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" s="2">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" s="2">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" s="2">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" s="2">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" s="2">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" s="2">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" s="2">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" s="2">
-        <v>201.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" s="2">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" s="2">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" s="2">
-        <v>186.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" s="2">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" s="2">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" s="2">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" s="2">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" s="2">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" s="2">
-        <v>171.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" s="2">
-        <v>212.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" s="2">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" s="2">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" s="2">
-        <v>248.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" s="2">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" s="2">
-        <v>253.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" s="2">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="B161" s="2">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" s="2">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" s="2">
-        <v>209.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="B164" s="2">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="B165" s="2">
-        <v>188.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" s="2">
-        <v>154.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" s="2">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="B169" s="2">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="B170" s="2">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="B171" s="2">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="B172" s="2">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="B173" s="2">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" s="2">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="B175" s="2">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="B176" s="2">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" s="2">
-        <v>223.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" s="2">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="B180" s="2">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" s="2">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" s="2">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" s="2">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" s="2">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="B185" s="2">
-        <v>192.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="B186" s="2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="B187" s="2">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="B194" s="2">
-        <v>202.0</v>
-      </c>
-      <c r="C194" s="2">
-        <v>159.0</v>
-      </c>
-      <c r="D194" s="12">
-        <v>127.0</v>
-      </c>
-      <c r="E194" s="12">
-        <v>216.0</v>
-      </c>
-      <c r="F194" s="2">
-        <v>189.0</v>
-      </c>
-      <c r="G194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="I194" s="2">
-        <v>184.0</v>
-      </c>
-      <c r="J194" s="2">
-        <v>252.0</v>
-      </c>
-      <c r="K194" s="2">
-        <v>238.0</v>
-      </c>
-      <c r="L194" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="M194" s="2">
-        <v>216.0</v>
-      </c>
-      <c r="N194" s="2">
-        <v>182.0</v>
-      </c>
-      <c r="O194" s="2">
-        <v>208.0</v>
-      </c>
-      <c r="P194" s="2">
-        <v>87.0</v>
-      </c>
-      <c r="Q194" s="2">
-        <v>141.0</v>
-      </c>
-      <c r="R194" s="2">
-        <v>133.0</v>
-      </c>
-      <c r="S194" s="2">
-        <v>202.0</v>
-      </c>
-      <c r="T194" s="2">
-        <v>163.0</v>
-      </c>
-      <c r="U194" s="2">
-        <v>118.0</v>
-      </c>
-      <c r="V194" s="2">
-        <v>122.0</v>
-      </c>
-      <c r="W194" s="2">
-        <v>141.0</v>
-      </c>
-      <c r="X194" s="2">
-        <v>130.0</v>
-      </c>
-      <c r="Y194" s="2">
-        <v>147.0</v>
-      </c>
-      <c r="Z194" s="2">
-        <v>103.0</v>
-      </c>
-      <c r="AA194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="AB194" s="2">
-        <v>184.0</v>
-      </c>
-      <c r="AC194" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="AD194" s="2">
-        <v>204.0</v>
-      </c>
-      <c r="AE194" s="2">
-        <v>182.0</v>
-      </c>
-      <c r="AF194" s="2">
-        <v>191.0</v>
-      </c>
-      <c r="AG194" s="2">
-        <v>174.0</v>
-      </c>
-      <c r="AH194" s="2">
-        <v>162.0</v>
-      </c>
-      <c r="AI194" s="2">
-        <v>179.0</v>
-      </c>
-      <c r="AJ194" s="2">
-        <v>159.0</v>
-      </c>
-      <c r="AK194" s="2">
-        <v>215.0</v>
-      </c>
-      <c r="AL194" s="2">
-        <v>170.0</v>
-      </c>
-      <c r="AM194" s="2">
-        <v>163.0</v>
-      </c>
-      <c r="AN194" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="AO194" s="2">
-        <v>126.0</v>
-      </c>
-      <c r="AP194" s="2">
-        <v>176.0</v>
-      </c>
-      <c r="AQ194" s="2">
-        <v>186.0</v>
-      </c>
-      <c r="AR194" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="AS194" s="2">
-        <v>151.0</v>
-      </c>
-      <c r="AT194" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="AU194" s="2">
-        <v>168.0</v>
-      </c>
-      <c r="AV194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="AW194" s="2">
-        <v>143.0</v>
-      </c>
-      <c r="AX194" s="2">
-        <v>180.0</v>
-      </c>
-      <c r="AY194" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="AZ194" s="2">
-        <v>212.0</v>
-      </c>
-      <c r="BA194" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="BB194" s="2">
-        <v>144.0</v>
-      </c>
-      <c r="BC194" s="2">
-        <v>248.0</v>
-      </c>
-      <c r="BD194" s="2">
-        <v>130.0</v>
-      </c>
-      <c r="BE194" s="2">
-        <v>253.0</v>
-      </c>
-      <c r="BF194" s="2">
-        <v>176.0</v>
-      </c>
-      <c r="BG194" s="2">
-        <v>134.0</v>
-      </c>
-      <c r="BH194" s="2">
-        <v>205.0</v>
-      </c>
-      <c r="BI194" s="2">
-        <v>209.0</v>
-      </c>
-      <c r="BJ194" s="2">
-        <v>181.0</v>
-      </c>
-      <c r="BK194" s="2">
-        <v>188.0</v>
-      </c>
-      <c r="BL194" s="2">
-        <v>154.0</v>
-      </c>
-      <c r="BM194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="BN194" s="2">
-        <v>215.0</v>
-      </c>
-      <c r="BO194" s="2">
-        <v>176.0</v>
-      </c>
-      <c r="BP194" s="2">
-        <v>132.0</v>
-      </c>
-      <c r="BQ194" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="BR194" s="2">
-        <v>173.0</v>
-      </c>
-      <c r="BS194" s="2">
-        <v>169.0</v>
-      </c>
-      <c r="BT194" s="2">
-        <v>170.0</v>
-      </c>
-      <c r="BU194" s="2">
-        <v>215.0</v>
-      </c>
-      <c r="BV194" s="2">
-        <v>185.0</v>
-      </c>
-      <c r="BW194" s="2">
-        <v>223.0</v>
-      </c>
-      <c r="BX194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="BY194" s="2">
-        <v>161.0</v>
-      </c>
-      <c r="BZ194" s="2">
-        <v>159.0</v>
-      </c>
-      <c r="CA194" s="2">
-        <v>133.0</v>
-      </c>
-      <c r="CB194" s="2">
-        <v>163.0</v>
-      </c>
-      <c r="CC194" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="CD194" s="2">
-        <v>129.0</v>
-      </c>
-      <c r="CE194" s="2">
-        <v>192.0</v>
-      </c>
-      <c r="CF194" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="CG194" s="2">
-        <v>155.0</v>
-      </c>
-    </row>
+      <c r="BY105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CG105" s="1"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BN106" s="1"/>
+      <c r="BS106" s="1"/>
+      <c r="BV106" s="1"/>
+      <c r="BZ106" s="1"/>
+      <c r="CB106" s="1"/>
+      <c r="CD106" s="1"/>
+      <c r="CE106" s="1"/>
+      <c r="CF106" s="1"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="BM107" s="1"/>
+      <c r="BO107" s="1"/>
+      <c r="BR107" s="1"/>
+      <c r="BU107" s="1"/>
+      <c r="BV107" s="1"/>
+      <c r="BW107" s="1"/>
+      <c r="CB107" s="1"/>
+      <c r="CC107" s="1"/>
+      <c r="CD107" s="1"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>